--- a/TO DO list.xlsx
+++ b/TO DO list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Categorie</t>
   </si>
@@ -64,6 +64,39 @@
   </si>
   <si>
     <t>recuperer un fichier</t>
+  </si>
+  <si>
+    <t>ouvrir le fichier a importer et importer(client)</t>
+  </si>
+  <si>
+    <t>bouton importer fichier(client)</t>
+  </si>
+  <si>
+    <t>bouton recuper le fichier(client)</t>
+  </si>
+  <si>
+    <t>ouvrir le dossier pour l'enregistrer et recuperer(client)</t>
+  </si>
+  <si>
+    <t>thread determiner action(client)</t>
+  </si>
+  <si>
+    <t>thread fenetre envoyer(client)</t>
+  </si>
+  <si>
+    <t>thread fenetre recuperer(client)</t>
+  </si>
+  <si>
+    <t>thread Action recuperer(serveur principal)</t>
+  </si>
+  <si>
+    <t>thread Action recuperer(s1,s2,s3)</t>
+  </si>
+  <si>
+    <t>thread Action envoyer(serveur principal)</t>
+  </si>
+  <si>
+    <t>thread Action envoyer(s1,s2,s3)</t>
   </si>
 </sst>
 </file>
@@ -416,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -485,11 +518,11 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="0">D3*F3</f>
+        <f t="shared" ref="G3:G14" si="0">D3*F3</f>
         <v>120</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H7" si="1">D3-G3</f>
+        <f t="shared" ref="H3:H14" si="1">D3-G3</f>
         <v>0</v>
       </c>
     </row>
@@ -517,18 +550,18 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -539,15 +572,15 @@
         <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -555,60 +588,257 @@
         <v>15</v>
       </c>
       <c r="D7" s="4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.8" customHeight="1">
-      <c r="F8" s="2"/>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.8" customHeight="1">
-      <c r="F9" s="2"/>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="16.8" customHeight="1">
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.8" customHeight="1"/>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="12" spans="1:8">
-      <c r="F12" s="2"/>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="F13" s="2"/>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="F14" s="2"/>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="F15" s="2"/>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>D15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>D15-G15</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="F16" s="2"/>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>D16*F16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f>D16-G16</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="F17" s="2"/>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G19" si="2">D17*F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:H19" si="3">D17-G17</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="3:8">
-      <c r="F19" s="2"/>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="3:8">
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="3:8">
-      <c r="F21" s="2"/>
-    </row>
     <row r="22" spans="3:8">
       <c r="F22" s="2"/>
     </row>
+    <row r="23" spans="3:8">
+      <c r="F23" s="2"/>
+    </row>
     <row r="24" spans="3:8">
       <c r="F24" s="2"/>
     </row>
@@ -616,31 +846,29 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="F26" s="2"/>
+      <c r="G26">
+        <f>SUM(G1:G24)</f>
+        <v>415</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H2:H17)</f>
+        <v>190</v>
+      </c>
     </row>
     <row r="27" spans="3:8">
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="G28">
-        <f>SUM(G1:G26)</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" t="s">
+      <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
-        <f>SUM(D2:D27)</f>
-        <v>305</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="D27">
+        <f>SUM(D2:D25)</f>
+        <v>655</v>
+      </c>
+      <c r="G27" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="3">
-        <f>G28/D29</f>
-        <v>0.57377049180327866</v>
+      <c r="H27" s="3">
+        <f>G26/D27</f>
+        <v>0.63358778625954193</v>
       </c>
     </row>
   </sheetData>
